--- a/biology/Mycologie/Aphyllophorales/Aphyllophorales.xlsx
+++ b/biology/Mycologie/Aphyllophorales/Aphyllophorales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Les aphyllophorales, dont le nom signifie « ordre (des champignons) qui ne portent pas de lames » (jadis Polyporales lato sensu) était un ordre de champignons homobasidiomycètes[1], qui regroupait les espèces gymnocarpes, c'est-à-dire « dont la fructification est nue » (grec : gumnos = nu et karpos = fruit), c'est-à-dire dont les cellules sporifères sont déjà étalées à l'extérieur au stade de primordium[2]. Une fois le carpophore entièrement développé, elles forment une couche de cellules appelées hyménium. Leurs spores sont donc formées sur des surfaces nues. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Les aphyllophorales, dont le nom signifie « ordre (des champignons) qui ne portent pas de lames » (jadis Polyporales lato sensu) était un ordre de champignons homobasidiomycètes, qui regroupait les espèces gymnocarpes, c'est-à-dire « dont la fructification est nue » (grec : gumnos = nu et karpos = fruit), c'est-à-dire dont les cellules sporifères sont déjà étalées à l'extérieur au stade de primordium. Une fois le carpophore entièrement développé, elles forment une couche de cellules appelées hyménium. Leurs spores sont donc formées sur des surfaces nues. 
 Ce vaste groupe englobait tous les champignons supérieurs aux carpophores de forme très variée, ayant les caractères suivants :
 hyménium pouvant être lisse ou rugueux, ou hérissé d'aiguillons, de dents, etc.; présenter des tubes, ou même très rarement
 des lames ou des plis, mais alors très difficiles à séparer de la chair, qui est à consistance de bois ou de liège ou très fibreuse et résiste à la mastication.
@@ -515,7 +527,9 @@
           <t>Familles incluses dans les Aphyllophorales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Coriolaceae
 Corticiaceae
